--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
@@ -481,7 +481,7 @@
     <col width="23" customWidth="1" min="18" max="18"/>
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
-    <col width="55" customWidth="1" min="21" max="21"/>
+    <col width="62" customWidth="1" min="21" max="21"/>
     <col width="164" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
@@ -1017,8 +1017,118 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03-12-2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VASILE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GHEORGHE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1623145566712</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BUCOVINA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GURA HUMORULUI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pensionar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2336954</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT CU DIFICULTATI DE RESPIRATIE SI SOMN ANORMAL
+</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PILLOWS</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.3MG/ML</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PARKINSON
+CANCER PROSTATIC
+DIABET ZAHARAT STADIU II
+</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XANAX SI MONITORIZARE LA SOMN PERMANENTA
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V5"/>
+  <autoFilter ref="A1:V6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
@@ -481,7 +481,7 @@
     <col width="23" customWidth="1" min="18" max="18"/>
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
-    <col width="62" customWidth="1" min="21" max="21"/>
+    <col width="55" customWidth="1" min="21" max="21"/>
     <col width="164" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
@@ -925,17 +925,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02-12-2023</t>
+          <t>13-12-2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>KILLIAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MESSI</t>
+          <t>MBPAPPE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>07894125632</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>B-BUCURESTI</t>
+          <t>IF-ILFOV</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Lege Speciala</t>
+          <t>Pensionar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -968,9 +968,14 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>256312</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASDADSA
+          <t xml:space="preserve">ASDSADSA
 </t>
         </is>
       </c>
@@ -1001,134 +1006,24 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">NON-APLICABIL
+          <t xml:space="preserve">EGOISM
 </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A JUCA PANA LA 40 ANI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>03-12-2023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VASILE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GHEORGHE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1623145566712</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BUCOVINA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GURA HUMORULUI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>SV-SUCEAVA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Pensionar</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2336954</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PACIENT CU DIFICULTATI DE RESPIRATIE SI SOMN ANORMAL
-</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>OBSTRUCTIV</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PILLOWS</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1236</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.3MG/ML</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PARKINSON
-CANCER PROSTATIC
-DIABET ZAHARAT STADIU II
-</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">XANAX SI MONITORIZARE LA SOMN PERMANENTA
+          <t xml:space="preserve">A SE MUTA LA REAL MADRID
 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V6"/>
+  <autoFilter ref="A1:V5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
@@ -482,7 +482,7 @@
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
     <col width="55" customWidth="1" min="21" max="21"/>
-    <col width="164" customWidth="1" min="22" max="22"/>
+    <col width="200" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01-12-2023</t>
+          <t>20-12-2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -709,10 +709,8 @@
       <c r="V2" t="inlineStr">
         <is>
           <t xml:space="preserve">A SE EVITA FRIGUL
-PARACETAMOL 2 X 3 ZILE
-SINGULAIR 1 X 7 ZILE
-VENTOLIN LA NEVOIE SI DIFICULTATI DE RESPIRATIE
-A SE REPETA CONTROLUL DUPA O LUNA DE ZILE.
+AERIUS LA NEVOIE
+A SE REPETA CONTROLUL DUPA 3 LUNI DE ZILE.
 </t>
         </is>
       </c>
@@ -827,27 +825,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03-12-2023</t>
+          <t>13-12-2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IOAN</t>
+          <t>KILLIAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UNGUREANU</t>
+          <t>MBAPPEE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1900106226805</t>
+          <t>1234567891011</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>078941256322</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SV-SUCEAVA</t>
+          <t>IF-ILFOV</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -857,7 +860,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Salariat</t>
+          <t>Pensionar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -867,13 +870,13 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CVBVCBVC </t>
+          <t>25631214</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">VCBVCBVCBVCBVC
-</t>
+          <t>ASDSADSA
+ASDSADSADSADSASDGFDBGFDDSGDFGDFGDF</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -908,13 +911,20 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DFXCCGBDFGFDGFD
-</t>
+          <t>EGOISM
+APLICATIA VAD CA FUNCTIONEAZA ACUMA</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">FDGFDGFDGFDGFDGFD
+          <t xml:space="preserve">A SE MUTA LA REAL MADRID
+POATE RAMANE SI LA PSG DACA VREA SA FACA RECORDURI, DAR NU CRED CA E BUN
+ASASASA
+ASASASQ
+MAESTRO KIMBPEMBPE EEEEE
+ADADADADA
+ADASDASDSADSA
+TEST TEST TEST TEST SCROLL
 </t>
         </is>
       </c>
@@ -925,32 +935,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13-12-2023</t>
+          <t>04-01-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>KILLIAN</t>
+          <t>PUFOSEL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MBPAPPE</t>
+          <t>MOTAN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1234567891011</t>
+          <t>1900106375492</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07894125632</t>
+          <t>0748313438</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PISICEASCA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BUCOVINA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IF-ILFOV</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -960,7 +980,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Pensionar</t>
+          <t>Salariat</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -970,60 +990,170 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>256312</t>
+          <t>XDQWDX</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASDSADSA
+          <t xml:space="preserve">PACIENT PISICOS, SE ADRESEAZA PENTRU RESPIRATOE ORALA NOCTURNA, ALINTATURI, MOTANELI.
 </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NAZALA</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4-12</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIPODRAGANEALA
+</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-CRESTE DRAGANEALA LA ZILNIC, 3 PUPURIX10/ZI, 20 IMBRATISARI/ZI, MINIM;
+-LA NEVOIE, SUPLIMENTERAZA DRAGANEALA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20-12-2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GIGI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BECALI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1235558971414</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>078945632</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PIPERA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B-BUCURESTI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lege Speciala</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1213AAA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT IN VARSTA DE 70 DE ANI SUFERA DE DEMENTA CHAMPIONS LEAGUE
+</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EGOISM
-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A SE MUTA LA REAL MADRID
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OISM
+HAHALERISM
+</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A SE ASTEPTA PANA IN VARA ANULUI VIITOR CA POATE CASTIGA TITLUL. CONTROL IN IUNIE
 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V5"/>
+  <autoFilter ref="A1:V6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Lege Speciala</t>
+          <t>Handicap</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">

--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -482,7 +482,7 @@
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
     <col width="55" customWidth="1" min="21" max="21"/>
-    <col width="200" customWidth="1" min="22" max="22"/>
+    <col width="176" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -710,7 +710,7 @@
         <is>
           <t xml:space="preserve">A SE EVITA FRIGUL
 AERIUS LA NEVOIE
-A SE REPETA CONTROLUL DUPA 3 LUNI DE ZILE.
+A SE REPETA CONTROLUL DUPA 6 LUNI DE ZILE.
 </t>
         </is>
       </c>
@@ -922,8 +922,6 @@
 ASASASA
 ASASASQ
 MAESTRO KIMBPEMBPE EEEEE
-ADADADADA
-ADASDASDSADSA
 TEST TEST TEST TEST SCROLL
 </t>
         </is>

--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$7</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,8 +1150,121 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03-01-2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MESSI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1900106226823</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5522333</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>INTER</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MIMAI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>STRAINATATE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Salariat</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>256314</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUCATOR BUN
+</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PILLOWS</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALENT PREA MARE
+</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A JUCA PANA LA CUPA MONDIALA SI A O CASTIGA
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V6"/>
+  <autoFilter ref="A1:V7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
@@ -1263,8 +1263,121 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18-01-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PUFOSEL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UNGUREANU</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1900106226805</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0748313438</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>VASILE LEUPU</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>IASI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>IS-IASI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Salariat</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POLIPOZA NAZALA
+</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NAZALA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RINITA ALERGICA
+</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUP X2
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V7"/>
+  <autoFilter ref="A1:V8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
@@ -482,7 +482,7 @@
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
     <col width="55" customWidth="1" min="21" max="21"/>
-    <col width="164" customWidth="1" min="22" max="22"/>
+    <col width="200" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -935,7 +935,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MBPAPPE</t>
+          <t>MBAPPEE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1018,12 +1018,136 @@
       <c r="V5" t="inlineStr">
         <is>
           <t xml:space="preserve">A SE MUTA LA REAL MADRID
+POATE RAMANE SI LA PSG DACA VREA SA FACA RECORDURI, DAR NU CRED CA E BUN
+ASASASA
+ASASASQ
+MAESTRO KIMBPEMBPE EEEEE
+ADADADADA
+ADASDASDSADSA
+TEST TEST TEST TEST SCROLL
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17-12-2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ROBERTO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CAVALLI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1122334455667</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07896512342</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>VIA MILANO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>MILANO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>STRAINATATE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ajutor Social</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1236589</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT CU MIROSURI FOARTE DULCI, SUFERA DE POPULARITATE
+SP 97 %
+</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MIXT</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>ALA BALA</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.1MG/ML</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEMENTA GENERALA 
+MIROS URAT
+</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A NU SE CUMPARA PARFUMUL LUI
+A SE SCOATE DE PE PIATA
+CONTROL LA 6 LUNI
 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V5"/>
+  <autoFilter ref="A1:V6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$W$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,26 +463,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="46" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="113" customWidth="1" min="14" max="14"/>
+    <col width="146" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
     <col width="23" customWidth="1" min="16" max="16"/>
     <col width="23" customWidth="1" min="17" max="17"/>
     <col width="23" customWidth="1" min="18" max="18"/>
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="24" customWidth="1" min="20" max="20"/>
-    <col width="55" customWidth="1" min="21" max="21"/>
-    <col width="176" customWidth="1" min="22" max="22"/>
+    <col width="174" customWidth="1" min="21" max="21"/>
+    <col width="101" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,6 +596,11 @@
           <t>RECOMANDARE</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>AHI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -603,12 +608,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20-12-2023</t>
+          <t>06-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IOAN-RAZVAN</t>
+          <t>RAZVAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -626,16 +631,6 @@
           <t>0748313438</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>VASILE LUPU</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>IASI</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>IS-IASI</t>
@@ -653,27 +648,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>21356</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JJJJ\
+SASDA
+ASDASDAS
+</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PACIENT IN VARSTA DE 33 ANI CU OCHI ROSII, DIFICULTATI DE RESPIRATIE.
-SP 96%
-SUB-FEBRIL CU USOARE TUSE
-</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>NON-APLICABIL</t>
@@ -701,16 +696,14 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t xml:space="preserve">POLIPOZA NAZALA
-ASTM BRONSIC PE FONT ALERGIC
+          <t xml:space="preserve">ASTM BRO
+SIC
 </t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SE EVITA FRIGUL
-AERIUS LA NEVOIE
-A SE REPETA CONTROLUL DUPA 6 LUNI DE ZILE.
+          <t xml:space="preserve">ASFADSA
 </t>
         </is>
       </c>
@@ -721,7 +714,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02-12-2023</t>
+          <t>15-02-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -731,22 +724,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNGUREANU</t>
+          <t>UNGHUREANU</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1900106226805</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0748313439</t>
+          <t>1900106225809</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>VASILE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>IASI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SV-SUCEAVA</t>
+          <t>IS-IASI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -766,12 +764,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>A1234578</t>
+          <t>215689</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT CU CALDURI SEVERE
+          <t xml:space="preserve">SALUT
 </t>
         </is>
       </c>
@@ -807,14 +805,13 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOMN PROFUND
-SFORAIT SI MIEUNAT
+          <t xml:space="preserve">ASTM BRONISC
 </t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SE BEA CAFEA DIMINEATA
+          <t xml:space="preserve">MONITOR MAI MARE
 </t>
         </is>
       </c>
@@ -825,32 +822,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13-12-2023</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>KILLIAN</t>
+          <t>GHEORGHE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MBAPPEE</t>
+          <t>FETITARI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1234567891011</t>
+          <t>1740815330011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>078941256322</t>
+          <t>0767819486</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CAMPULUNG MOLDOVENESC</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IF-ILFOV</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -868,40 +870,35 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>25631214</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ASDSADSA
-ASDSADSADSADSASDGFDBGFDDSGDFGDFGDF</t>
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SAS TIP MIXT IN 2023, IASI, CU POLIGRAFIE : AHI=76,6/ORA, INDEX DESATURARI=80,2/ORA, SPO2 MEDIE NOCTURNA=85%AA.
+</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>MIXT</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>ORONAZALA</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>BUNA-94%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -911,18 +908,15 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>EGOISM
-APLICATIA VAD CA FUNCTIONEAZA ACUMA</t>
+          <t xml:space="preserve">SINDROM DE APNEE IN SOMN DE TIP MIXT FORMA SEVERA
+TIROIDITA AUTOIMUNA IN TRATAMENT DE SUBSTITUTIE HORMONALA
+DIABET ZAHARAT DE TIP2 TRATAT CU ADO COMPLICAT CU PNPSM
+</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SE MUTA LA REAL MADRID
-POATE RAMANE SI LA PSG DACA VREA SA FACA RECORDURI, DAR NU CRED CA E BUN
-ASASASA
-ASASASQ
-MAESTRO KIMBPEMBPE EEEEE
-TEST TEST TEST TEST SCROLL
+          <t xml:space="preserve">-CONTINUA TRATAMENTUL AUTO-CPAP, 5-14CMH2O.
 </t>
         </is>
       </c>
@@ -933,37 +927,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04-01-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PUFOSEL</t>
+          <t>BOGDAN-CRISTIAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOTAN</t>
+          <t>RUSU</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1900106375492</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0748313438</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PISICEASCA</t>
+          <t>1801224336528</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BUCOVINA</t>
+          <t>GURA HUMORULUI</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -978,7 +962,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Salariat</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -986,14 +970,9 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>XDQWDX</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT PISICOS, SE ADRESEAZA PENTRU RESPIRATOE ORALA NOCTURNA, ALINTATURI, MOTANELI.
+          <t xml:space="preserve">DIAGNISTICAT CU SASO LA IASI, SASO FORMA SEVERA- AHI=81,9/ORA;
 </t>
         </is>
       </c>
@@ -1009,7 +988,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>NAZALA</t>
+          <t>ORONAZALA</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1019,24 +998,23 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>6-16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">HIPODRAGANEALA
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">-CRESTE DRAGANEALA LA ZILNIC, 3 PUPURIX10/ZI, 20 IMBRATISARI/ZI, MINIM;
--LA NEVOIE, SUPLIMENTERAZA DRAGANEALA.
+          <t xml:space="preserve">AUTO CPAP 6-16 CMH2O
 </t>
         </is>
       </c>
@@ -1047,37 +1025,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20-12-2023</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GIGI</t>
+          <t>CEZAR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BECALI</t>
+          <t>BRANEANU</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1235558971414</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>078945632</t>
+          <t>1720525335043</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PIPERA</t>
+          <t>GURA HUMORULUI</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>B-BUCURESTI</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1087,7 +1060,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Handicap</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1095,57 +1068,46 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1213AAA</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT IN VARSTA DE 70 DE ANI SUFERA DE DEMENTA CHAMPIONS LEAGUE
+          <t xml:space="preserve">PACIENT CUNOSCUT CU SASO FORMA SEVERA, DIAGNOSTICAT LA IASI (AHI=84,1/ORA)
 </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">OISM
-HAHALERISM
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">A SE ASTEPTA PANA IN VARA ANULUI VIITOR CA POATE CASTIGA TITLUL. CONTROL IN IUNIE
+          <t xml:space="preserve">5-17 CM H2O
 </t>
         </is>
       </c>
@@ -1156,42 +1118,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03-01-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DROB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MESSI</t>
+          <t>GHEORGHINA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1900106226823</t>
+          <t>2570423333198</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5522333</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>INTER</t>
+          <t>0740983678</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MIMAI</t>
+          <t>PALTINOASA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>STRAINATATE</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1201,7 +1158,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Salariat</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1209,14 +1166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>256314</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUCATOR BUN
+          <t xml:space="preserve">
+PACIENTA DIAGNOSTICATA CU SASO FORMA SEVERA
 </t>
         </is>
       </c>
@@ -1232,17 +1185,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>PILLOWS</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>BUNA</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.325</t>
+          <t>ORONAZALA</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1252,13 +1195,13 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">TALENT PREA MARE
+          <t xml:space="preserve">-SINDROM DEPRESIV IN TRATAMENT
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A JUCA PANA LA CUPA MONDIALA SI A O CASTIGA
+          <t xml:space="preserve">-CONTINUA AUTO-CPAP, 4-13
 </t>
         </is>
       </c>
@@ -1269,42 +1212,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18-01-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PUFOSEL</t>
+          <t>DAN-CRISTINEL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UNGUREANU</t>
+          <t>STINGU</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1900106226805</t>
+          <t>1721027332150</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0748313438</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>VASILE LEUPU</t>
+          <t>0751402208</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>IASI</t>
+          <t>GURA HUMORULUI</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>IS-IASI</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1319,65 +1257,893 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU  SAS TIP MIXT, FORMA SEVERA. AHI=64,4/ORA, INDEX DESATURARI=65,3/ORA, SPO2 MEDIE NOCTURNA=88,2%AA.
+</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MIXT</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4-12</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HTA
+</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-AUTO CPAP, 4-12;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ADRIAN-CATALIN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HRISCA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1830131375492</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SUCEAVA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Salariat</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SASO FORMA MODERATA, AHI=20,1/ORA.
+</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">POLIPOZA NAZALA
-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NON-APLICABIL
+</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO-CPAP, 4-11CMH2O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IONUT-PETRICA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DRUTCA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1860615336683</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0755906004</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CAMPULUNG MOLDOVENESC</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+PACIENT CU OBEZITATE MORBIDA, CUNOSCUT CU AB, CU INDICATIE DE CHIRURGIE BARIATRICA
+AHI=72,5/ORA</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>OBSTRUCTIV</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NAZALA</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>BUNA</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RINITA ALERGICA
-</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PUP X2
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5-15</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASTM BRONSIC; OBEZITATE MORBIDA (IMC=56 KG/M2)
+</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRESIUNE POZITIVA CONTINUA DE TIP AUTO-CPAP, MASCA ORO NAZALA, INTRE 5-15CMH2O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IONUT-CONSTANTIN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KERTH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1840515336675</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0757887573</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SADOVA</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT ADRESAT IN VEDEREA INTERVENTIEI CHIRURGICALE BARIATRICE; FARA APP SEMNIFICATIVE. AHI=96/ORA
+</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5-16</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NON-APLICABIL
+</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-TERAPIE CU PRESIUNE POZITIVA CONTINUA MINIMUM 30- ZILE INAINTEA INTERVENTIEI CHIRURGICALE
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>08-01-2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FLORIN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CRECIUNESCU</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1690904330011</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0744932639</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CAMPULUNG</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT CUNOSCUT CU BPOC;  SASO FORMA SEVERA
+</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BPOC
+</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO-CPAP 4-13
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FLORIN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LUPASCU</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1841008330194</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SUCEAVA</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AHI=50,3/ORA
+</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NON-APLICABIL
+</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-13
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DORIN</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GAVRILOVICII SAS MIXT AHI=50,4/ORA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1640417335015</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0752858651</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PALTINOASA</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Pensionar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AHI=50,4/ORA
+</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>MIXT</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DEVIATIE DE SEPT NAZAL
+</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-12
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>STELIAN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CANCIUC SASO FORMA SEVERA AHI=68/ORA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1760212335068</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SUCEAVA</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT CUNOSCUT CU ASTM+BPOC
+</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AHI=68/ORA
+</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-12
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RODICA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BISERICA, SAS MIXT AHI=20,3/ORA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2591108330781</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SUCEAVA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AHI=20,3/ORA
+</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>MIXT</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>ORONAZALA</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BNS, FIA PAROXISTICA
+</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CPAP 7
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14-01-2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ANGELO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ZUDDAS, SAS MIXT, AHI=70,6/ORA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7580212330012</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0749600839</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PALTINOASA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SV-SUCEAVA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BPOC
+</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BPOC
+</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO-CPAP 4-12
 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V8"/>
+  <autoFilter ref="A1:W17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$W$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$W$18</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,7 @@
     <col width="24" customWidth="1" min="20" max="20"/>
     <col width="174" customWidth="1" min="21" max="21"/>
     <col width="101" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,7 +597,7 @@
           <t>RECOMANDARE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>AHI</t>
         </is>
@@ -707,6 +708,11 @@
 </t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2142,8 +2148,111 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16-01-2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DXFDS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SDFDSFDS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1900106226805</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>OT-OLT</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Elev/Student</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NON-APLICABIL
+</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDFDSFDSFDSFDS
+</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>9999</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W17"/>
+  <autoFilter ref="A1:W18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
+++ b/Registru_Pacienti/excel_database/Registru_pacienti.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="REGISTRU" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$W$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'REGISTRU'!$A$1:$W$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,18 +19,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -60,19 +53,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -83,7 +67,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -91,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,9 +438,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -467,7 +451,7 @@
     <col width="46" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="31" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
@@ -483,7 +467,7 @@
     <col width="24" customWidth="1" min="20" max="20"/>
     <col width="174" customWidth="1" min="21" max="21"/>
     <col width="101" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -609,7 +593,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06-02-2024</t>
+          <t>15-02-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,17 +603,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNGUREANU</t>
+          <t>UNGHUREANU</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1900106226805</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0748313438</t>
+          <t>1900106225809</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>VASILE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>IASI</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -654,14 +643,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21356</t>
+          <t>215689</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">JJJJ\
-SASDA
-ASDASDAS
+          <t xml:space="preserve">SALUT
 </t>
         </is>
       </c>
@@ -697,20 +684,14 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASTM BRO
-SIC
+          <t xml:space="preserve">ASTM BRONISC
 </t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASFADSA
-</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1234</t>
+          <t xml:space="preserve">MONITOR MAI MARE
+</t>
         </is>
       </c>
     </row>
@@ -720,37 +701,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RAZVAN</t>
+          <t>GHEORGHE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UNGHUREANU</t>
+          <t>FETITARI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1900106225809</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>VASILE</t>
+          <t>1740815330011</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0767819486</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>IASI</t>
+          <t>CAMPULUNG MOLDOVENESC</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>IS-IASI</t>
+          <t>SV-SUCEAVA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -760,7 +741,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Salariat</t>
+          <t>Pensionar</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -768,40 +749,35 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>215689</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SALUT
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SAS TIP MIXT IN 2023, IASI, CU POLIGRAFIE : AHI=76,6/ORA, INDEX DESATURARI=80,2/ORA, SPO2 MEDIE NOCTURNA=85%AA.
 </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>MIXT</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>ORONAZALA</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>BUNA-94%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -811,13 +787,15 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASTM BRONISC
+          <t xml:space="preserve">SINDROM DE APNEE IN SOMN DE TIP MIXT FORMA SEVERA
+TIROIDITA AUTOIMUNA IN TRATAMENT DE SUBSTITUTIE HORMONALA
+DIABET ZAHARAT DE TIP2 TRATAT CU ADO COMPLICAT CU PNPSM
 </t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONITOR MAI MARE
+          <t xml:space="preserve">-CONTINUA TRATAMENTUL AUTO-CPAP, 5-14CMH2O.
 </t>
         </is>
       </c>
@@ -828,32 +806,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15-10-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GHEORGHE</t>
+          <t>BOGDAN-CRISTIAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FETITARI</t>
+          <t>RUSU</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1740815330011</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0767819486</t>
+          <t>1801224336528</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CAMPULUNG MOLDOVENESC</t>
+          <t>GURA HUMORULUI</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -868,7 +841,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pensionar</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -878,7 +851,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SAS TIP MIXT IN 2023, IASI, CU POLIGRAFIE : AHI=76,6/ORA, INDEX DESATURARI=80,2/ORA, SPO2 MEDIE NOCTURNA=85%AA.
+          <t xml:space="preserve">DIAGNISTICAT CU SASO LA IASI, SASO FORMA SEVERA- AHI=81,9/ORA;
 </t>
         </is>
       </c>
@@ -889,7 +862,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>MIXT</t>
+          <t>OBSTRUCTIV</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -899,30 +872,28 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>BUNA-94%</t>
+          <t>BUNA</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>6-16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SINDROM DE APNEE IN SOMN DE TIP MIXT FORMA SEVERA
-TIROIDITA AUTOIMUNA IN TRATAMENT DE SUBSTITUTIE HORMONALA
-DIABET ZAHARAT DE TIP2 TRATAT CU ADO COMPLICAT CU PNPSM
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-CONTINUA TRATAMENTUL AUTO-CPAP, 5-14CMH2O.
+          <t xml:space="preserve">AUTO CPAP 6-16 CMH2O
 </t>
         </is>
       </c>
@@ -933,22 +904,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOGDAN-CRISTIAN</t>
+          <t>CEZAR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RUSU</t>
+          <t>BRANEANU</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1801224336528</t>
+          <t>1720525335043</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -978,7 +949,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">DIAGNISTICAT CU SASO LA IASI, SASO FORMA SEVERA- AHI=81,9/ORA;
+          <t xml:space="preserve">PACIENT CUNOSCUT CU SASO FORMA SEVERA, DIAGNOSTICAT LA IASI (AHI=84,1/ORA)
 </t>
         </is>
       </c>
@@ -1002,11 +973,6 @@
           <t>BUNA</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>6-16</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -1020,7 +986,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTO CPAP 6-16 CMH2O
+          <t xml:space="preserve">5-17 CM H2O
 </t>
         </is>
       </c>
@@ -1031,27 +997,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CEZAR</t>
+          <t>DROB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRANEANU</t>
+          <t>GHEORGHINA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1720525335043</t>
+          <t>2570423333198</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0740983678</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GURA HUMORULUI</t>
+          <t>PALTINOASA</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1076,7 +1047,8 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT CUNOSCUT CU SASO FORMA SEVERA, DIAGNOSTICAT LA IASI (AHI=84,1/ORA)
+          <t xml:space="preserve">
+PACIENTA DIAGNOSTICATA CU SASO FORMA SEVERA
 </t>
         </is>
       </c>
@@ -1095,25 +1067,20 @@
           <t>ORONAZALA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>BUNA</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">NON-APLICABIL
+          <t xml:space="preserve">-SINDROM DEPRESIV IN TRATAMENT
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-17 CM H2O
+          <t xml:space="preserve">-CONTINUA AUTO-CPAP, 4-13
 </t>
         </is>
       </c>
@@ -1124,32 +1091,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12-09-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DROB</t>
+          <t>DAN-CRISTINEL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GHEORGHINA</t>
+          <t>STINGU</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2570423333198</t>
+          <t>1721027332150</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0740983678</t>
+          <t>0751402208</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PALTINOASA</t>
+          <t>GURA HUMORULUI</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1164,7 +1131,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>Salariat</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1174,8 +1141,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-PACIENTA DIAGNOSTICATA CU SASO FORMA SEVERA
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU  SAS TIP MIXT, FORMA SEVERA. AHI=64,4/ORA, INDEX DESATURARI=65,3/ORA, SPO2 MEDIE NOCTURNA=88,2%AA.
 </t>
         </is>
       </c>
@@ -1186,7 +1152,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>OBSTRUCTIV</t>
+          <t>MIXT</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1194,6 +1160,11 @@
           <t>ORONAZALA</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>4-12</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>YES</t>
@@ -1201,13 +1172,13 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">-SINDROM DEPRESIV IN TRATAMENT
+          <t xml:space="preserve">HTA
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">-CONTINUA AUTO-CPAP, 4-13
+          <t xml:space="preserve">-AUTO CPAP, 4-12;
 </t>
         </is>
       </c>
@@ -1218,32 +1189,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DAN-CRISTINEL</t>
+          <t>ADRIAN-CATALIN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>STINGU</t>
+          <t>HRISCA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1721027332150</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0751402208</t>
+          <t>1830131375492</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GURA HUMORULUI</t>
+          <t>SUCEAVA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1268,7 +1234,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU  SAS TIP MIXT, FORMA SEVERA. AHI=64,4/ORA, INDEX DESATURARI=65,3/ORA, SPO2 MEDIE NOCTURNA=88,2%AA.
+          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SASO FORMA MODERATA, AHI=20,1/ORA.
 </t>
         </is>
       </c>
@@ -1279,7 +1245,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>MIXT</t>
+          <t>OBSTRUCTIV</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1287,25 +1253,20 @@
           <t>ORONAZALA</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>4-12</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTA
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">-AUTO CPAP, 4-12;
+          <t xml:space="preserve">AUTO-CPAP, 4-11CMH2O
 </t>
         </is>
       </c>
@@ -1316,27 +1277,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>14-01-2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADRIAN-CATALIN</t>
+          <t>IONUT-PETRICA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HRISCA</t>
+          <t>DRUTCA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1830131375492</t>
+          <t>1860615336683</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0755906004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SUCEAVA</t>
+          <t>CAMPULUNG MOLDOVENESC</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1351,7 +1317,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Salariat</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1361,8 +1327,9 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT DIAGNOSTICAT CU SASO FORMA MODERATA, AHI=20,1/ORA.
-</t>
+          <t xml:space="preserve">
+PACIENT CU OBEZITATE MORBIDA, CUNOSCUT CU AB, CU INDICATIE DE CHIRURGIE BARIATRICA
+AHI=72,5/ORA</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1380,20 +1347,25 @@
           <t>ORONAZALA</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5-15</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">NON-APLICABIL
+          <t xml:space="preserve">ASTM BRONSIC; OBEZITATE MORBIDA (IMC=56 KG/M2)
 </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTO-CPAP, 4-11CMH2O
+          <t xml:space="preserve">PRESIUNE POZITIVA CONTINUA DE TIP AUTO-CPAP, MASCA ORO NAZALA, INTRE 5-15CMH2O
 </t>
         </is>
       </c>
@@ -1409,27 +1381,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IONUT-PETRICA</t>
+          <t>IONUT-CONSTANTIN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DRUTCA</t>
+          <t>KERTH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1860615336683</t>
+          <t>1840515336675</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0755906004</t>
+          <t>0757887573</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CAMPULUNG MOLDOVENESC</t>
+          <t>SADOVA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1439,7 +1411,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1449,14 +1421,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-PACIENT CU OBEZITATE MORBIDA, CUNOSCUT CU AB, CU INDICATIE DE CHIRURGIE BARIATRICA
-AHI=72,5/ORA</t>
+          <t xml:space="preserve">PACIENT ADRESAT IN VEDEREA INTERVENTIEI CHIRURGICALE BARIATRICE; FARA APP SEMNIFICATIVE. AHI=96/ORA
+</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1476,23 +1452,23 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>5-16</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASTM BRONSIC; OBEZITATE MORBIDA (IMC=56 KG/M2)
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRESIUNE POZITIVA CONTINUA DE TIP AUTO-CPAP, MASCA ORO NAZALA, INTRE 5-15CMH2O
+          <t xml:space="preserve">-TERAPIE CU PRESIUNE POZITIVA CONTINUA MINIMUM 30- ZILE INAINTEA INTERVENTIEI CHIRURGICALE
 </t>
         </is>
       </c>
@@ -1503,32 +1479,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14-01-2025</t>
+          <t>08-01-2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IONUT-CONSTANTIN</t>
+          <t>FLORIN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KERTH</t>
+          <t>CRECIUNESCU</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1840515336675</t>
+          <t>1690904330011</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0757887573</t>
+          <t>0744932639</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SADOVA</t>
+          <t>CAMPULUNG</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1538,7 +1514,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1548,54 +1524,44 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PACIENT CUNOSCUT CU BPOC;  SASO FORMA SEVERA
+</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>OBSTRUCTIV</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>NON-APLICABIL</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PACIENT ADRESAT IN VEDEREA INTERVENTIEI CHIRURGICALE BARIATRICE; FARA APP SEMNIFICATIVE. AHI=96/ORA
-</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>OBSTRUCTIV</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>ORONAZALA</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>5-16</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">NON-APLICABIL
+          <t xml:space="preserve">BPOC
 </t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">-TERAPIE CU PRESIUNE POZITIVA CONTINUA MINIMUM 30- ZILE INAINTEA INTERVENTIEI CHIRURGICALE
+          <t xml:space="preserve">AUTO-CPAP 4-13
 </t>
         </is>
       </c>
@@ -1606,7 +1572,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08-01-2025</t>
+          <t>14-01-2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1616,22 +1582,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CRECIUNESCU</t>
+          <t>LUPASCU</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1690904330011</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0744932639</t>
+          <t>1841008330194</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CAMPULUNG</t>
+          <t>SUCEAVA</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1656,7 +1617,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT CUNOSCUT CU BPOC;  SASO FORMA SEVERA
+          <t xml:space="preserve">AHI=50,3/ORA
 </t>
         </is>
       </c>
@@ -1672,23 +1633,23 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>ORONAZALA</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t xml:space="preserve">BPOC
+          <t xml:space="preserve">NON-APLICABIL
 </t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTO-CPAP 4-13
+          <t xml:space="preserve">4-13
 </t>
         </is>
       </c>
@@ -1704,22 +1665,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FLORIN</t>
+          <t>DORIN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LUPASCU</t>
+          <t>GAVRILOVICII SAS MIXT AHI=50,4/ORA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1841008330194</t>
+          <t>1640417335015</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0752858651</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SUCEAVA</t>
+          <t>PALTINOASA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1734,17 +1700,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Pensionar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>NON-APLICABIL</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">AHI=50,3/ORA
+          <t xml:space="preserve">AHI=50,4/ORA
 </t>
         </is>
       </c>
@@ -1755,7 +1726,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>OBSTRUCTIV</t>
+          <t>MIXT</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1765,18 +1736,18 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t xml:space="preserve">NON-APLICABIL
+          <t xml:space="preserve">DEVIATIE DE SEPT NAZAL
 </t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-13
+          <t xml:space="preserve">4-12
 </t>
         </is>
       </c>
@@ -1792,27 +1763,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DORIN</t>
+          <t>STELIAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GAVRILOVICII SAS MIXT AHI=50,4/ORA</t>
+          <t>CANCIUC SASO FORMA SEVERA AHI=68/ORA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1640417335015</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0752858651</t>
+          <t>1760212335068</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PALTINOASA</t>
+          <t>SUCEAVA</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1827,22 +1793,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Pensionar</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">AHI=50,4/ORA
+          <t xml:space="preserve">PACIENT CUNOSCUT CU ASTM+BPOC
 </t>
         </is>
       </c>
@@ -1853,7 +1814,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>MIXT</t>
+          <t>OBSTRUCTIV</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1868,7 +1829,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEVIATIE DE SEPT NAZAL
+          <t xml:space="preserve">AHI=68/ORA
 </t>
         </is>
       </c>
@@ -1890,17 +1851,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STELIAN</t>
+          <t>RODICA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CANCIUC SASO FORMA SEVERA AHI=68/ORA</t>
+          <t>BISERICA, SAS MIXT AHI=20,3/ORA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1760212335068</t>
+          <t>2591108330781</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1930,7 +1891,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">PACIENT CUNOSCUT CU ASTM+BPOC
+          <t xml:space="preserve">AHI=20,3/ORA
 </t>
         </is>
       </c>
@@ -1941,7 +1902,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>OBSTRUCTIV</t>
+          <t>MIXT</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1956,13 +1917,13 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t xml:space="preserve">AHI=68/ORA
+          <t xml:space="preserve">BNS, FIA PAROXISTICA
 </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-12
+          <t xml:space="preserve">CPAP 7
 </t>
         </is>
       </c>
@@ -1978,22 +1939,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RODICA</t>
+          <t>ANGELO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BISERICA, SAS MIXT AHI=20,3/ORA</t>
+          <t>ZUDDAS, SAS MIXT, AHI=70,6/ORA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2591108330781</t>
+          <t>7580212330012</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0749600839</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SUCEAVA</t>
+          <t>PALTINOASA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2018,7 +1984,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">AHI=20,3/ORA
+          <t xml:space="preserve">BPOC
 </t>
         </is>
       </c>
@@ -2029,12 +1995,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>MIXT</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ORONAZALA</t>
+          <t>NON-APLICABIL</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2044,13 +2010,13 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t xml:space="preserve">BNS, FIA PAROXISTICA
+          <t xml:space="preserve">BPOC
 </t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t xml:space="preserve">CPAP 7
+          <t xml:space="preserve">AUTO-CPAP 4-12
 </t>
         </is>
       </c>
@@ -2061,37 +2027,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14-01-2025</t>
+          <t>08-01-2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANGELO</t>
+          <t>RAZVAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZUDDAS, SAS MIXT, AHI=70,6/ORA</t>
+          <t>UNGUREANU</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7580212330012</t>
+          <t>1900106226805</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0749600839</t>
+          <t>0748313438</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>VASILELUPU</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PALTINOASA</t>
+          <t>IASI</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SV-SUCEAVA</t>
+          <t>IS-IASI</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2101,7 +2072,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>Salariat</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2109,9 +2080,14 @@
           <t>YES</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">BPOC
+          <t xml:space="preserve">SAADASDSADSASADSA
 </t>
         </is>
       </c>
@@ -2122,12 +2098,22 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>OBSTRUCTIV</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>NON-APLICABIL</t>
+          <t>PILLOWS</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>BUNA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2.3MG/ML</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2137,122 +2123,19 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t xml:space="preserve">BPOC
+          <t xml:space="preserve">ASTEM BRONSIC PE FONT ALERGIC
 </t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTO-CPAP 4-12
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>16-01-2025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DXFDS</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SDFDSFDS</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1900106226805</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>OT-OLT</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Elev/Student</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2368</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>NON-APLICABIL</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NON-APLICABIL
-</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDFDSFDSFDSFDS
-</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>9999</t>
+          <t xml:space="preserve">VENTOLIN LA NEVOIE
+</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:W17"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>